--- a/data_xlsx/期货收盘价(活跃合约)_COMEX黄金.xlsx
+++ b/data_xlsx/期货收盘价(活跃合约)_COMEX黄金.xlsx
@@ -27458,8 +27458,184 @@
         <v>1966.6</v>
       </c>
     </row>
+    <row r="3423">
+      <c r="A3423" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B3423" s="2" t="n">
+        <v>1973.4</v>
+      </c>
+    </row>
     <row r="3424">
-      <c r="A3424" s="3" t="inlineStr">
+      <c r="A3424" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B3424" s="2" t="n">
+        <v>1946.3</v>
+      </c>
+    </row>
+    <row r="3425">
+      <c r="A3425" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B3425" s="2" t="n">
+        <v>1958.8</v>
+      </c>
+    </row>
+    <row r="3426">
+      <c r="A3426" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B3426" s="2" t="n">
+        <v>2003.7</v>
+      </c>
+    </row>
+    <row r="3427">
+      <c r="A3427" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B3427" s="2" t="n">
+        <v>1981.6</v>
+      </c>
+    </row>
+    <row r="3428">
+      <c r="A3428" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B3428" s="2" t="n">
+        <v>1970.8</v>
+      </c>
+    </row>
+    <row r="3429">
+      <c r="A3429" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B3429" s="2" t="n">
+        <v>1969.3</v>
+      </c>
+    </row>
+    <row r="3430">
+      <c r="A3430" s="1" t="n">
+        <v>45142.0</v>
+      </c>
+      <c r="B3430" s="2" t="n">
+        <v>1978.2</v>
+      </c>
+    </row>
+    <row r="3431">
+      <c r="A3431" s="1" t="n">
+        <v>45145.0</v>
+      </c>
+      <c r="B3431" s="2" t="n">
+        <v>1971.7</v>
+      </c>
+    </row>
+    <row r="3432">
+      <c r="A3432" s="1" t="n">
+        <v>45146.0</v>
+      </c>
+      <c r="B3432" s="2" t="n">
+        <v>1959.7</v>
+      </c>
+    </row>
+    <row r="3433">
+      <c r="A3433" s="1" t="n">
+        <v>45147.0</v>
+      </c>
+      <c r="B3433" s="2" t="n">
+        <v>1947.8</v>
+      </c>
+    </row>
+    <row r="3434">
+      <c r="A3434" s="1" t="n">
+        <v>45148.0</v>
+      </c>
+      <c r="B3434" s="2" t="n">
+        <v>1944.7</v>
+      </c>
+    </row>
+    <row r="3435">
+      <c r="A3435" s="1" t="n">
+        <v>45149.0</v>
+      </c>
+      <c r="B3435" s="2" t="n">
+        <v>1945.7</v>
+      </c>
+    </row>
+    <row r="3436">
+      <c r="A3436" s="1" t="n">
+        <v>45152.0</v>
+      </c>
+      <c r="B3436" s="2" t="n">
+        <v>1939.1</v>
+      </c>
+    </row>
+    <row r="3437">
+      <c r="A3437" s="1" t="n">
+        <v>45153.0</v>
+      </c>
+      <c r="B3437" s="2" t="n">
+        <v>1933.3</v>
+      </c>
+    </row>
+    <row r="3438">
+      <c r="A3438" s="1" t="n">
+        <v>45154.0</v>
+      </c>
+      <c r="B3438" s="2" t="n">
+        <v>1922.1</v>
+      </c>
+    </row>
+    <row r="3439">
+      <c r="A3439" s="1" t="n">
+        <v>45155.0</v>
+      </c>
+      <c r="B3439" s="2" t="n">
+        <v>1918.9</v>
+      </c>
+    </row>
+    <row r="3440">
+      <c r="A3440" s="1" t="n">
+        <v>45156.0</v>
+      </c>
+      <c r="B3440" s="2" t="n">
+        <v>1918.4</v>
+      </c>
+    </row>
+    <row r="3441">
+      <c r="A3441" s="1" t="n">
+        <v>45159.0</v>
+      </c>
+      <c r="B3441" s="2" t="n">
+        <v>1924.0</v>
+      </c>
+    </row>
+    <row r="3442">
+      <c r="A3442" s="1" t="n">
+        <v>45160.0</v>
+      </c>
+      <c r="B3442" s="2" t="n">
+        <v>1926.4</v>
+      </c>
+    </row>
+    <row r="3443">
+      <c r="A3443" s="1" t="n">
+        <v>45161.0</v>
+      </c>
+      <c r="B3443" s="2" t="n">
+        <v>1945.0</v>
+      </c>
+    </row>
+    <row r="3444">
+      <c r="A3444" s="1" t="n">
+        <v>45162.0</v>
+      </c>
+      <c r="B3444" s="2" t="n">
+        <v>1944.7</v>
+      </c>
+    </row>
+    <row r="3446">
+      <c r="A3446" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
